--- a/LoveCraftsScrape.xlsx
+++ b/LoveCraftsScrape.xlsx
@@ -1,47 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliafetta/Documents/WebScraping practice/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D7D8E6-5E26-314B-AFB0-06F38BBBFEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{BB52F95B-3238-CB43-B80F-952926ECFD2C}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="welcome" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>yarn info</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -54,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,26 +59,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -96,44 +103,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -160,32 +167,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -212,24 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -241,173 +212,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22FA344-4A1A-084D-B0CB-EB0D26C4BB7B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LoveCraftsScrape.xlsx
+++ b/LoveCraftsScrape.xlsx
@@ -14,12 +14,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>yarn info</t>
   </si>
   <si>
     <t>pricing</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        50% Wool 50% Acrylic, 180m (197yds)/100g (3.5oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 88m (96yds)/50g (1.8oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 880m (962yds)/500g (17.6oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 200m (219yds)/100g (3.5oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 166m (182yds)/100g (3.5oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 90m (98yds)/50g (1.8oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 900m (984yds)/500g (17.6oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 440m (481yds)/250g (8.8oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        50% Wool 25% Alpaca 25% Viscose, 87m (95yds)/50g (1.8oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 100m (109yds)/50g (1.8oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 180m (197yds)/100g (3.5oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        50% Wool 50% Acrylic, 500g (17.6oz)
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        35% Wool 20% Acrylic 20% Polyamide 25% Viscose, 300m (328yds)/100g (3.5oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        100% Wool, 137m (150yds)/100g (3.5oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        96% Wool 4% Viscose, 166m (182yds)/100g (3.5oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+        80% Wool 20% Polyamide, 199m (218yds)/100g (3.5oz), Aran
+      &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="product-card__subtitle"&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £7.00
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £8.49
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £9.99
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £7.49
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £9.49
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £6.95
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £4.99
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £3.49
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £8.70
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £6.90
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £4.49
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £10.99
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £12.99
+    &lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+      £6.25
+    &lt;/span&gt;&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -377,18 +531,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/LoveCraftsScrape.xlsx
+++ b/LoveCraftsScrape.xlsx
@@ -14,166 +14,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
-  <si>
-    <t>yarn info</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+  <si>
+    <t>fibre</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
   <si>
     <t>pricing</t>
   </si>
   <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        50% Wool 50% Acrylic, 180m (197yds)/100g (3.5oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 88m (96yds)/50g (1.8oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 880m (962yds)/500g (17.6oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 200m (219yds)/100g (3.5oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 166m (182yds)/100g (3.5oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 90m (98yds)/50g (1.8oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 900m (984yds)/500g (17.6oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 440m (481yds)/250g (8.8oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        50% Wool 25% Alpaca 25% Viscose, 87m (95yds)/50g (1.8oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 100m (109yds)/50g (1.8oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 180m (197yds)/100g (3.5oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        50% Wool 50% Acrylic, 500g (17.6oz)
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        35% Wool 20% Acrylic 20% Polyamide 25% Viscose, 300m (328yds)/100g (3.5oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        100% Wool, 137m (150yds)/100g (3.5oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        96% Wool 4% Viscose, 166m (182yds)/100g (3.5oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-        80% Wool 20% Polyamide, 199m (218yds)/100g (3.5oz), Aran
-      &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p class="product-card__subtitle"&gt;
-&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    <t>50% Wool 50% Acrylic</t>
+  </si>
+  <si>
+    <t>100% Wool</t>
+  </si>
+  <si>
+    <t>50% Wool 25% Alpaca 25% Viscose</t>
+  </si>
+  <si>
+    <t>35% Wool 20% Acrylic 20% Polyamide 25% Viscose</t>
+  </si>
+  <si>
+    <t>96% Wool 4% Viscose</t>
+  </si>
+  <si>
+    <t>80% Wool 20% Polyamide</t>
+  </si>
+  <si>
+    <t>180m (197yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>88m (96yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>880m (962yds)/500g (17.6oz)</t>
+  </si>
+  <si>
+    <t>200m (219yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>166m (182yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>90m (98yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>900m (984yds)/500g (17.6oz)</t>
+  </si>
+  <si>
+    <t>440m (481yds)/250g (8.8oz)</t>
+  </si>
+  <si>
+    <t>87m (95yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>100m (109yds)/50g (1.8oz)</t>
+  </si>
+  <si>
+    <t>300m (328yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>137m (150yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>199m (218yds)/100g (3.5oz)</t>
+  </si>
+  <si>
+    <t>Aran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £7.00
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £8.49
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £9.99
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £7.49
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £9.49
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £6.95
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £4.99
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £3.49
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £8.70
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £6.90
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £4.49
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £10.99
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £12.99
-    &lt;/span&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;span class="lc-price__regular" data-v-27ab4212=""&gt;&lt;span data-v-27ab4212=""&gt;
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
       £6.25
-    &lt;/span&gt;&lt;/span&gt;</t>
+    </t>
   </si>
 </sst>
 </file>
@@ -531,54 +513,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -586,172 +592,234 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/LoveCraftsScrape.xlsx
+++ b/LoveCraftsScrape.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>fibre</t>
   </si>
@@ -28,6 +31,57 @@
     <t>pricing</t>
   </si>
   <si>
+    <t>Paintbox Yarns Wool Mix Aran</t>
+  </si>
+  <si>
+    <t>Debbie Bliss Donegal Luxury Tweed Aran</t>
+  </si>
+  <si>
+    <t>Debbie Bliss Donegal Luxury Tweed Aran 10 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>Cascade 220</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners The Croft</t>
+  </si>
+  <si>
+    <t>Debbie Bliss British Wool Aran</t>
+  </si>
+  <si>
+    <t>Debbie Bliss British Wool Aran 10 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>Debbie Bliss Donegal Luxury Tweed Aran 5 Ball Value Pack</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners Jacobs Aran</t>
+  </si>
+  <si>
+    <t>Rowan Felted Tweed Aran</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners ColourLab Aran</t>
+  </si>
+  <si>
+    <t>Noro Kureyon</t>
+  </si>
+  <si>
+    <t>King Cole Wool Aran</t>
+  </si>
+  <si>
+    <t>King Cole Forest Aran</t>
+  </si>
+  <si>
+    <t>Cascade Yarns 220 Superwash Aran Wave</t>
+  </si>
+  <si>
+    <t>West Yorkshire Spinners ColourLab Aran Tweed</t>
+  </si>
+  <si>
+    <t>Novita 7 Veljestä</t>
+  </si>
+  <si>
     <t>50% Wool 50% Acrylic</t>
   </si>
   <si>
@@ -88,74 +142,46 @@
     <t>Aran</t>
   </si>
   <si>
-    <t xml:space="preserve">
-      £7.00
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £8.49
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £9.99
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £7.49
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £9.49
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £6.95
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £4.99
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £3.49
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £8.70
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £6.90
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £4.49
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £10.99
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £12.99
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      £6.25
-    </t>
+    <t>£7.00</t>
+  </si>
+  <si>
+    <t>£8.49</t>
+  </si>
+  <si>
+    <t>£9.99</t>
+  </si>
+  <si>
+    <t>£7.49</t>
+  </si>
+  <si>
+    <t>£9.49</t>
+  </si>
+  <si>
+    <t>£6.95</t>
+  </si>
+  <si>
+    <t>£4.99</t>
+  </si>
+  <si>
+    <t>£3.49</t>
+  </si>
+  <si>
+    <t>£8.70</t>
+  </si>
+  <si>
+    <t>£6.90</t>
+  </si>
+  <si>
+    <t>£4.49</t>
+  </si>
+  <si>
+    <t>£10.99</t>
+  </si>
+  <si>
+    <t>£12.99</t>
+  </si>
+  <si>
+    <t>£6.25</t>
   </si>
 </sst>
 </file>
@@ -513,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,294 +558,348 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
